--- a/examples/Austin ISD Consolidation Plan_Exploratory Analysis_10.2025.xlsx
+++ b/examples/Austin ISD Consolidation Plan_Exploratory Analysis_10.2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="266">
   <si>
     <t>Campus Number</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Grade Range</t>
   </si>
   <si>
-    <t>2014-15 to 2024-2025 Percent Enrollment Change</t>
+    <t>Is Private Campus</t>
   </si>
   <si>
     <t>Number of Charter Campuses Receiving Student Transfers - TOTAL</t>
@@ -130,7 +130,7 @@
     <t>NEAREST CHARTER Grade Range</t>
   </si>
   <si>
-    <t>NEAREST CHARTER 2014-15 to 2024-2025 Percent Enrollment Change</t>
+    <t>NEAREST CHARTER Is Private Campus</t>
   </si>
   <si>
     <t>NEAREST CHARTER Number of Charter Campuses Receiving Student Transfers - TOTAL</t>
@@ -559,7 +559,7 @@
     <t>'227816101</t>
   </si>
   <si>
-    <t>'108807191</t>
+    <t>'227819101</t>
   </si>
   <si>
     <t>'108807035</t>
@@ -595,7 +595,7 @@
     <t>HARMONY SCHOOL OF EXCELLENCE - AUSTIN</t>
   </si>
   <si>
-    <t>IDEA HEALTH PROFESSIONS ACADEMY</t>
+    <t>UNIVERSITY OF TEXAS EL CHARTER SCHOOL</t>
   </si>
   <si>
     <t>IDEA MONTOPOLIS COLLEGE PREPARATORY</t>
@@ -631,12 +631,12 @@
     <t>'03-12</t>
   </si>
   <si>
+    <t>'PK-05</t>
+  </si>
+  <si>
     <t>'05-08</t>
   </si>
   <si>
-    <t>'PK-05</t>
-  </si>
-  <si>
     <t>'EE-08</t>
   </si>
   <si>
@@ -652,6 +652,9 @@
     <t>25.5</t>
   </si>
   <si>
+    <t>4.8</t>
+  </si>
+  <si>
     <t>7.4</t>
   </si>
   <si>
@@ -682,9 +685,6 @@
     <t>24.5</t>
   </si>
   <si>
-    <t>34.2</t>
-  </si>
-  <si>
     <t>18.4</t>
   </si>
   <si>
@@ -718,9 +718,6 @@
     <t>9.5</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>8.9</t>
   </si>
   <si>
@@ -745,9 +742,6 @@
     <t>37.1</t>
   </si>
   <si>
-    <t>44.8</t>
-  </si>
-  <si>
     <t>51.2</t>
   </si>
   <si>
@@ -781,7 +775,7 @@
     <t>73.3</t>
   </si>
   <si>
-    <t>88.1</t>
+    <t>60</t>
   </si>
   <si>
     <t>68.3</t>
@@ -806,9 +800,6 @@
   </si>
   <si>
     <t>14.7</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>18.5</t>
@@ -1404,8 +1395,8 @@
       <c r="F2" t="s">
         <v>96</v>
       </c>
-      <c r="G2">
-        <v>-0.3088737201365188</v>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>26</v>
@@ -1500,6 +1491,9 @@
       <c r="AL2" t="s">
         <v>201</v>
       </c>
+      <c r="AM2" t="b">
+        <v>0</v>
+      </c>
       <c r="AN2">
         <v>0</v>
       </c>
@@ -1513,7 +1507,7 @@
         <v>208</v>
       </c>
       <c r="AS2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT2">
         <v>5.6</v>
@@ -1561,16 +1555,16 @@
         <v>229</v>
       </c>
       <c r="BI2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BJ2" t="s">
         <v>149</v>
       </c>
       <c r="BK2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="BL2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BM2">
         <v>0.4753998531359231</v>
@@ -1595,8 +1589,8 @@
       <c r="F3" t="s">
         <v>96</v>
       </c>
-      <c r="G3">
-        <v>0.4635568513119533</v>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -1691,6 +1685,9 @@
       <c r="AL3" t="s">
         <v>202</v>
       </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
       <c r="AN3">
         <v>0</v>
       </c>
@@ -1752,16 +1749,16 @@
         <v>230</v>
       </c>
       <c r="BI3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BJ3" t="s">
+        <v>248</v>
+      </c>
+      <c r="BK3" t="s">
         <v>250</v>
       </c>
-      <c r="BK3" t="s">
-        <v>252</v>
-      </c>
       <c r="BL3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="BM3">
         <v>3.180921912226335</v>
@@ -1786,17 +1783,17 @@
       <c r="F4" t="s">
         <v>97</v>
       </c>
-      <c r="G4">
-        <v>-0.3075335397316821</v>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>15</v>
       </c>
       <c r="J4">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="K4" s="2">
         <v>46174</v>
@@ -1882,8 +1879,8 @@
       <c r="AL4" t="s">
         <v>203</v>
       </c>
-      <c r="AM4">
-        <v>1.198412698412698</v>
+      <c r="AM4" t="b">
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1898,7 +1895,7 @@
         <v>210</v>
       </c>
       <c r="AS4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AT4">
         <v>5.2</v>
@@ -1946,13 +1943,13 @@
         <v>231</v>
       </c>
       <c r="BI4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BJ4" t="s">
         <v>149</v>
       </c>
       <c r="BK4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BL4" t="s">
         <v>144</v>
@@ -1980,8 +1977,8 @@
       <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="G5">
-        <v>-0.2736572890025575</v>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2076,6 +2073,9 @@
       <c r="AL5" t="s">
         <v>204</v>
       </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
       <c r="AN5">
         <v>0</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>208</v>
       </c>
       <c r="AS5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AT5">
         <v>0.9</v>
@@ -2171,8 +2171,8 @@
       <c r="F6" t="s">
         <v>96</v>
       </c>
-      <c r="G6">
-        <v>-0.4131736526946108</v>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -2267,8 +2267,8 @@
       <c r="AL6" t="s">
         <v>203</v>
       </c>
-      <c r="AM6">
-        <v>-0.1852459016393443</v>
+      <c r="AM6" t="b">
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>211</v>
       </c>
       <c r="AS6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AT6">
         <v>3.9</v>
@@ -2331,16 +2331,16 @@
         <v>233</v>
       </c>
       <c r="BI6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BJ6" t="s">
         <v>149</v>
       </c>
       <c r="BK6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BL6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BM6">
         <v>1.918560337826251</v>
@@ -2365,14 +2365,14 @@
       <c r="F7" t="s">
         <v>96</v>
       </c>
-      <c r="G7">
-        <v>-0.02184466019417476</v>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>26</v>
@@ -2450,16 +2450,19 @@
         <v>193</v>
       </c>
       <c r="AI7">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AJ7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s">
         <v>95</v>
       </c>
       <c r="AL7" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>0</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -2471,28 +2474,28 @@
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AS7" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="AT7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU7">
-        <v>77</v>
+        <v>62.3</v>
       </c>
       <c r="AV7">
-        <v>91.3</v>
+        <v>59.6</v>
       </c>
       <c r="AW7">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="AX7">
-        <v>46.8</v>
+        <v>10.3</v>
       </c>
       <c r="AY7">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="AZ7">
         <v>0</v>
@@ -2501,40 +2504,40 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC7">
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>100</v>
+        <v>25.7</v>
       </c>
       <c r="BE7">
-        <v>68.7</v>
+        <v>28.1</v>
       </c>
       <c r="BF7">
-        <v>45.7</v>
+        <v>10.3</v>
       </c>
       <c r="BG7">
-        <v>11.7</v>
+        <v>20.2</v>
       </c>
       <c r="BH7" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="BI7" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="BJ7" t="s">
         <v>149</v>
       </c>
       <c r="BK7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BL7" t="s">
-        <v>264</v>
+        <v>115</v>
       </c>
       <c r="BM7">
-        <v>2.783826127441491</v>
+        <v>2.271154880306479</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2556,8 +2559,8 @@
       <c r="F8" t="s">
         <v>99</v>
       </c>
-      <c r="G8">
-        <v>-0.5549549549549549</v>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>24</v>
@@ -2652,8 +2655,8 @@
       <c r="AL8" t="s">
         <v>203</v>
       </c>
-      <c r="AM8">
-        <v>1.256756756756757</v>
+      <c r="AM8" t="b">
+        <v>0</v>
       </c>
       <c r="AN8">
         <v>0</v>
@@ -2665,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AS8" t="s">
         <v>223</v>
@@ -2716,16 +2719,16 @@
         <v>227</v>
       </c>
       <c r="BI8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BJ8" t="s">
         <v>149</v>
       </c>
       <c r="BK8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BL8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="BM8">
         <v>2.619433915640213</v>
@@ -2750,17 +2753,17 @@
       <c r="F9" t="s">
         <v>96</v>
       </c>
-      <c r="G9">
-        <v>-0.2973856209150327</v>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>14</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="K9" s="2">
         <v>46174</v>
@@ -2835,16 +2838,19 @@
         <v>193</v>
       </c>
       <c r="AI9">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AJ9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s">
         <v>95</v>
       </c>
       <c r="AL9" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="AM9" t="b">
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2856,28 +2862,28 @@
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AS9" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="AT9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU9">
-        <v>77</v>
+        <v>62.3</v>
       </c>
       <c r="AV9">
-        <v>91.3</v>
+        <v>59.6</v>
       </c>
       <c r="AW9">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="AX9">
-        <v>46.8</v>
+        <v>10.3</v>
       </c>
       <c r="AY9">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2886,40 +2892,40 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC9">
         <v>0</v>
       </c>
       <c r="BD9">
-        <v>100</v>
+        <v>25.7</v>
       </c>
       <c r="BE9">
-        <v>68.7</v>
+        <v>28.1</v>
       </c>
       <c r="BF9">
-        <v>45.7</v>
+        <v>10.3</v>
       </c>
       <c r="BG9">
-        <v>11.7</v>
+        <v>20.2</v>
       </c>
       <c r="BH9" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="BI9" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="BJ9" t="s">
         <v>149</v>
       </c>
       <c r="BK9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BL9" t="s">
-        <v>264</v>
+        <v>115</v>
       </c>
       <c r="BM9">
-        <v>1.818657229364676</v>
+        <v>1.136777087152986</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2941,14 +2947,14 @@
       <c r="F10" t="s">
         <v>96</v>
       </c>
-      <c r="G10">
-        <v>-0.3624031007751938</v>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>22</v>
@@ -3037,6 +3043,9 @@
       <c r="AL10" t="s">
         <v>201</v>
       </c>
+      <c r="AM10" t="b">
+        <v>0</v>
+      </c>
       <c r="AN10">
         <v>0</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AS10" t="s">
         <v>224</v>
@@ -3095,19 +3104,19 @@
         <v>11.1</v>
       </c>
       <c r="BH10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BI10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BJ10" t="s">
         <v>149</v>
       </c>
       <c r="BK10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BL10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="BM10">
         <v>1.687705020467638</v>
@@ -3132,8 +3141,8 @@
       <c r="F11" t="s">
         <v>96</v>
       </c>
-      <c r="G11">
-        <v>0.3112582781456953</v>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11">
         <v>13</v>
@@ -3226,10 +3235,10 @@
         <v>95</v>
       </c>
       <c r="AL11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM11">
-        <v>0.6277372262773723</v>
+        <v>206</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -3241,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AS11" t="s">
         <v>225</v>
@@ -3289,19 +3298,19 @@
         <v>12.1</v>
       </c>
       <c r="BH11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BI11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BJ11" t="s">
         <v>149</v>
       </c>
       <c r="BK11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BL11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BM11">
         <v>2.172065267100828</v>
@@ -3326,8 +3335,8 @@
       <c r="F12" t="s">
         <v>96</v>
       </c>
-      <c r="G12">
-        <v>-0.1470019342359768</v>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>14</v>
@@ -3420,10 +3429,10 @@
         <v>95</v>
       </c>
       <c r="AL12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM12">
-        <v>-0.4646924829157175</v>
+        <v>205</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3435,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AS12" t="s">
         <v>226</v>
@@ -3486,13 +3495,13 @@
         <v>171</v>
       </c>
       <c r="BI12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BJ12" t="s">
         <v>149</v>
       </c>
       <c r="BK12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BL12" t="s">
         <v>130</v>
@@ -3520,14 +3529,14 @@
       <c r="F13" t="s">
         <v>100</v>
       </c>
-      <c r="G13">
-        <v>-0.2636054421768708</v>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>138</v>
@@ -3614,10 +3623,10 @@
         <v>95</v>
       </c>
       <c r="AL13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM13">
-        <v>-0.05076142131979695</v>
+        <v>205</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3629,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AS13" t="s">
         <v>227</v>
@@ -3677,19 +3686,19 @@
         <v>7.6</v>
       </c>
       <c r="BH13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BI13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BJ13" t="s">
         <v>149</v>
       </c>
       <c r="BK13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BL13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="BM13">
         <v>1.513393191664098</v>
@@ -3714,14 +3723,14 @@
       <c r="F14" t="s">
         <v>100</v>
       </c>
-      <c r="G14">
-        <v>0.1011904761904762</v>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>91</v>
@@ -3810,8 +3819,8 @@
       <c r="AL14" t="s">
         <v>207</v>
       </c>
-      <c r="AM14">
-        <v>0.7028985507246377</v>
+      <c r="AM14" t="b">
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3823,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AS14" t="s">
         <v>228</v>
@@ -3871,19 +3880,19 @@
         <v>13.2</v>
       </c>
       <c r="BH14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BI14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BJ14" t="s">
         <v>149</v>
       </c>
       <c r="BK14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BL14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="BM14">
         <v>0.4841489644643237</v>
